--- a/medicine/Mort/Cimetière_russe_de_Wiesbaden/Cimetière_russe_de_Wiesbaden.xlsx
+++ b/medicine/Mort/Cimetière_russe_de_Wiesbaden/Cimetière_russe_de_Wiesbaden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Wiesbaden</t>
+          <t>Cimetière_russe_de_Wiesbaden</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière russe orthodoxe de Wiesbaden est situé à proximité de l'église russe Sainte-Élisabeth à Wiesbaden dans la Hesse. Il fut construit un an après la consécration de l'église, en 1855-1856, au bord d'une forêt. Wiesbaden était alors une ville d'eau fort prisée de l'aristocratie européenne et russe en particulier.
 C'est un des plus anciens cimetières russes en Europe occidentale, car la première inhumation, d’un certain prince Repnine, remonte au 29 août 1856. En 1864, le cimetière devient la propriété de l’église russe adjacente. Le premier agrandissement du cimetière a lieu en 1866.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Wiesbaden</t>
+          <t>Cimetière_russe_de_Wiesbaden</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alexej von Jawlensky, (1864-1941), peintre.
 Barys Kit, (1910-2018), mathématicien, physicien et chimiste biélorusse.
